--- a/finetuning/it_datasets/qa_dataset/qa_it_kasserine_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_kasserine_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,14 +664,55 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Salon De The Montana located at 5R9G+48Q Salon De The Montana, Kasserine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.167491, 8.8334526.</t>
+          <t>Salon De The Montana is a highly-rated cafe in Kasserine, Tunisia, with a 4.3 rating based on 6 reviews. This cafe opens from 06:00-22:00 and is located at the coordinates (35.167491, 8.8334526). While the description and website are currently unavailable, Salon De The Montana offers a range of cafe-style offerings in the heart of Kasserine.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe destination with a 4.3 rating in Kasserine?</t>
+          <t>Day Plan:
+Morning: Visit the historic Ayn al Qa'id water source to explore its natural beauty and significance.
+Mid-Morning: Indulge in a traditional Tunisian breakfast at the highly-rated Cafe El Jawhra, known for its cozy atmosphere and delicious coffee.
+Midday: Explore the vibrant Cafee Monalisa, which offers a diverse menu of traditional and international dishes, accompanied by a 5-star rating.
+Afternoon: Take a guided tour of Kasserine's archaeological landmarks, such as the Roman ruins or the Ottoman fortress, to delve into the region's rich history and culture.
+Evening: Enjoy a delightful dinner at Mlawi Hlima restaurant, savoring the flavors of authentic Tunisian fast food, accompanied by a 5-star rating.
+Night: Relax and unwind at Mac Food Kasserine, a charming cafe and grill, while enjoying the ambiance and sampling their grilled specialties, accompanied by a 4.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Jawhra, located at 35.3091495, 8.8142297 in Kasserine, is a popular cafe known for its cozy ambiance and delicious coffee. The cafe offers a wide variety of beverages and snacks to satisfy your cravings, and its convenient location makes it a perfect spot to relax and unwind.
+Cafee Monalisa is a restaurant located in Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is open from 8:00 AM to midnight and is closed on Sundays. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at 5RCJ+W7P, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -776,14 +822,55 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great place to eat, check out Brown Club located at Avenue Mohammed El Hammi. 
-This top-rated spot is perfect for Cafe lovers and offers a range of Cafe and Restaurant options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.171924896443, 8.821844789959. For more details, visit their website at https://brownclub.ovh/ or call them at 92 299 007.</t>
+          <t>The Brown Club is a highly-rated cafe and restaurant located in Kasserine, Tunisia. It offers a cozy atmosphere and a wide selection of food and beverages. The cafe is known for its excellent coffee and pastries, while the restaurant serves up delicious meals prepared with fresh ingredients. The Brown Club is a popular spot for locals and tourists alike, and is conveniently located near several attractions.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and searching for a highly rated dining destination, especially known for its Cafe fare, where can you find Brown Club?</t>
+          <t>Day Plan:
+Morning: Visit the scenic 'Ayn al Qa'id for breathtaking views of the water source.
+Mid-Morning: Explore the Brown Club, a cozy cafe known for its relaxing atmosphere, diverse food options, and friendly service.
+Midday: Indulge in traditional Tunisian cuisine at Wassel Sandwich, a highly-rated restaurant with an extensive menu, earning praise for its delicious dishes.
+Afternoon: Experience the energetic ambiance of ASK Street food, a fast food restaurant serving a variety of sandwiches, burgers, and salads, all prepared fresh.
+Evening: Head to Mac Food Kasserine for a delightful fusion of cafe and grill. Savor the expertly grilled dishes while enjoying the lively atmosphere.
+Night: Conclude the day at the Station des Bus de Kasserine, where you can mingle with locals and catch a bus back to your accommodation, reflecting on the vibrant and diverse experiences of the day in Kasserine.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.
+Wassel Sandwich is a restaurant located in the heart of Kasserine, Tunisia (35.167491, 8.8334526). It offers a variety of dishes and has received 4 reviews, earning it a 5.0 rating. The restaurant is open from 08:00-22:00, and is closed on . You can contact Wassel Sandwich by phone at 23 196 788.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -889,14 +976,56 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a delicious coffee or a cozy spot to relax, check out Bloom Cafe located at Bloom Cafe, Kasserine. 
-This popular destination is perfect for cafe lovers and offers a delicious range of coffee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.5652076, 8.4481267. For more details, call them at 55 533 671.</t>
+          <t>Bloom café is a café located in Kasserine, Tunisia. Featured in the cafe category, the establishment also serves beverages to its customers. Among its top-rated features, the cafe’s weekday hours run from 7:00 am to midnight, with no specific closing days. In case you need to contact the cafe, its telephone number is provided as 55 533 671. Reviews for this cafe are highly positive.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find Bloom Cafe, a highly-rated destination for coffee lovers offering a cozy atmosphere in Kasserine?</t>
+          <t>Day Plan:
+Morning: Exploring Cafee Monalisa for local cuisine and good ratings
+Mid-Morning: Relax at Station des Bus de Kasserine while waiting for the bus to the next destination
+Midday: Enjoy scenic views at Ayn al Qa'id
+Afternoon: Visit La sirene for a delicious pizza
+Evening: Participate in outdoor activities at a park
+Night: Experience cultural immersion at a museum in Kasserine</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located at Avenue Mohammed El Hammi in Kasserine, is a popular cafe that offers a cozy ambiance and delicious food. It is known for its friendly atmosphere and excellent service, with a rating of 4.7 stars based on 6 reviews. Brown Club features a diverse menu with both cafe and restaurant offerings, catering to a wide range of tastes. Its prime location, with coordinates (35.171924896443, 8.821844789959), makes it easily accessible to customers.
+Cafee Monalisa is a restaurant located in Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is open from 8:00 AM to midnight and is closed on Sundays. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at 5RCJ+W7P, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1131,61 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you happen to be in kasserine, a visit to My Way coffee shop is a must for cafe lovers. Located at 5RFW+PH9 My Way coffee shop, this highly-rated destination offers a warm and inviting ambiance to unwind and enjoy your favorite beverages. With a rating of 5.0, it's a testament to the exceptional experience they provide. My Way coffee shop is open 24 hours a day, so you can drop in whenever you crave a caffeine fix. For more details, you can give them a call at 97 221 055.</t>
+          <t>My Way coffee shop is a highly-rated cafe located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It is open 24 hours a day, offering a convenient and inviting space for patrons.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated coffee shop in Kasserine that invites you to enjoy a warm ambiance and exceptional beverages around the clock?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the Escape coffee shop for a caffeine fix and local pastries.
+**Mid-Morning:**
+* Visit Donna Margherita for a delightful brunch experience.
+**Midday:**
+* Take a guided tour of Ayn al Qa'id, a natural water source.
+**Afternoon:**
+* Engage in outdoor activities at the scenic Restaurant GUSTO.
+**Evening:**
+* Indulge in traditional Tunisian cuisine at Mlawi Hlima restaurant.
+**Night:**
+* Experience the vibrant ambiance of Mac Food Kasserine for grilled delicacies and lively entertainment.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.
+Donna Margherita is a popular restaurant located in Kasserine, Tunisia, known for its delicious food and warm ambiance. It offers a variety of dishes to satisfy every taste, from traditional Tunisian cuisine to international favorites. With an average rating of 4.3 out of 5, Donna Margherita has earned a reputation for providing excellent service and a welcoming atmosphere. It is located at 5RCQ+3F6 Donna Margherita, P13, Kasserine, Tunisia and is open 24 hours a day. If you're looking for a great dining experience in Kasserine, be sure to visit Donna Margherita.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1113,13 +1291,55 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Cafe, check out Escape coffee shop located at 5RJ8+PQ Escape coffee shop. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://instagram.com/escapeeclub%3Figshid%3DOGQ2MjdiOTE%3D or call them at 99 508 600.</t>
+          <t>Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a 4.3 rating and convenient operating hours in Kasserine, Tunisia?</t>
+          <t>Day Plan:
+Morning: Visit Nirvana coffee shop for breakfast and enjoy the cafe's cozy ambiance.
+Mid-Morning: Explore Ayn al Qa'id, a nearby source of water, for a refreshing change of scenery and a peaceful walk.
+Midday: Try local cuisine at Donna Margherita, a popular restaurant known for its delicious food and warm ambiance.
+Afternoon: Visit Restaurant GUSTO for a quick and tasty lunch of traditional Tunisian cuisine.
+Evening: Relax and watch a movie at Mac Food Kasserine, a cafe and grill that offers a comfortable and enjoyable atmosphere.
+Night: Take a guided tour of **Station des Bus de Kasserine**, a historic bus station that offers a glimpse into the city's transportation past.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nirvana coffee shop is a cafe located in Kasserine, Tunisia. It is open from 8:00 AM to 11:00 PM and is closed on Sundays. The cafe has a rating of 4.3 out of 5 stars on Google and has been reviewed by 3 people. Nirvana coffee shop's main category is Cafe and it also offers the following categories: Cafe. The cafe is located at the coordinates (35.167491, 8.8334526) and its address is 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine.
+Donna Margherita is a popular restaurant located in Kasserine, Tunisia, known for its delicious food and warm ambiance. It offers a variety of dishes to satisfy every taste, from traditional Tunisian cuisine to international favorites. With an average rating of 4.3 out of 5, Donna Margherita has earned a reputation for providing excellent service and a welcoming atmosphere. It is located at 5RCQ+3F6 Donna Margherita, P13, Kasserine, Tunisia and is open 24 hours a day. If you're looking for a great dining experience in Kasserine, be sure to visit Donna Margherita.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1225,14 +1445,55 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Cafee Monalisa located at 5RCJ+W7P Cafee Monalisa, Kasserine. 
-This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at  or call them at 56 021 957.</t>
+          <t>Cafee Monalisa is a 5-star rated restaurant located in Kasserine, Tunisia (35.167491, 8.8334526). It is open from 8:00 AM to 12:00 AM daily and offers a variety of dining options. The restaurant is known for its excellent service and delicious food, and is a popular destination for both locals and tourists.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated, must-visit destination with a wide range of categories for restaurant lovers in Kasserine?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ayn al Qa'id.
+Mid-Morning: Visit the Station des Bus de Kasserine for a glimpse into the local transportation scene.
+Midday: Try local cuisine at the highly-rated Restaurant El Baraka.
+Afternoon: Enjoy the lively atmosphere and delicious pizzas at La sirene pizzeria.
+Evening: Explore the bustling stalls of the local market for souvenirs and local delicacies.
+Night: Relax with a coffee at Salon De The Montana while enjoying the evening ambiance.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Montana is a highly-rated cafe in Kasserine, Tunisia, with a 4.3 rating based on 6 reviews. This cafe opens from 06:00-22:00 and is located at the coordinates (35.167491, 8.8334526). While the description and website are currently unavailable, Salon De The Montana offers a range of cafe-style offerings in the heart of Kasserine.
+Restaurant El Baraka is a highly-rated restaurant located in Kasserine, Tunisia. With a rating of 4.0, it has garnered positive feedback from customers. The restaurant offers a diverse menu, and its main category is Restaurant. It is situated at coordinates (35.7725988, -5.8086041).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1587,56 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great Cafe, check out Dar zuhur located at 5RM7+PM Dar zuhur, Kasserine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.1638567, 8.8327558.</t>
+          <t>Dar zuhur is a cafe located in Dar zuhur, Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe named Dar zuhur with a 5.0 rating in the vicinity of Kasserine?</t>
+          <t>Day Plan:
+Morning: Explore 'Ayn al Qa'id, a scenic natural spring.
+Mid-Morning: Try local cuisine at Mlawi Hlima Restaurant, known for its delicious fast food.
+Midday: Visit La sirene, a highly-rated pizzeria offering a variety of pizzas.
+Afternoon: Head to Mac Food Kasserine for a grilled dish and a taste of the local cafe culture.
+Evening: Experience the lively atmosphere at Brown Club, a cozy cafe known for its delicious food and friendly service.
+Night: Enjoy a relaxing night out at The Diesel, a cafeteria with a nice ambiance and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located at Avenue Mohammed El Hammi in Kasserine, is a popular cafe that offers a cozy ambiance and delicious food. It is known for its friendly atmosphere and excellent service, with a rating of 4.7 stars based on 6 reviews. Brown Club features a diverse menu with both cafe and restaurant offerings, catering to a wide range of tastes. Its prime location, with coordinates (35.171924896443, 8.821844789959), makes it easily accessible to customers.
+Restaurant El Baraka is a highly-rated restaurant located in Kasserine, Tunisia. With a rating of 4.0, it has garnered positive feedback from customers. The restaurant offers a diverse menu, and its main category is Restaurant. It is situated at coordinates (35.7725988, -5.8086041).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1425,16 +1730,61 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Cafe la rosa located at 5R9G+48Q Cafe la rosa, Kasserine.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 5.0, it's a must-visit spot.
-To get there, use these GPS coordinates: 35.167491, 8.8334526.
-For more details, visit their link at https://www.google.com/maps/place/Cafe+la+rosa/data=!4m7!3m6!1s0x12f91526a9bc3b6d:0xc29e038ca45388d1!8m2!3d35.1678929!4d8.82504!16s%2Fg%2F11kq3rys7v!19sChIJbTu8qSYV-RIR0YhTpIwDnsI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe la rosa, a 5-star rated cafe located in Kasserine (35.167491, 8.8334526), is a great place to relax and enjoy a cup of coffee. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is also a popular spot for locals to socialize and catch up with friends.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a vast selection of Cafe options in the Kasserine area?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant **Cafe-IN** for a cozy and delightful breakfast experience.
+**Mid-Morning:**
+* Take a guided tour of **Creperie la Joie**, known for its exquisite dining experience and discover the local flavors.
+**Midday:**
+* Visit the historic **'Ayn al Qa'id**, a natural spring, and enjoy a peaceful picnic lunch in its surroundings.
+**Afternoon:**
+* Engage in outdoor activities at the **Park** near **Creperie la Joie**, such as jogging or cycling, while immersing yourself in nature's beauty.
+**Evening:**
+* Indulge in a delicious dinner of fast food at **Mlawi Hlima restaurant**, savoring the local culinary delights.
+**Night:**
+* Relax and unwind at the cozy **Diesel** cafeteria, sipping on coffee and enjoying the serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Brown Club is a highly-rated cafe and restaurant located in Kasserine, Tunisia. It offers a cozy atmosphere and a wide selection of food and beverages. The cafe is known for its excellent coffee and pastries, while the restaurant serves up delicious meals prepared with fresh ingredients. The Brown Club is a popular spot for locals and tourists alike, and is conveniently located near several attractions.
+Located in Kasserine, Creperie la Joie is a restaurant offering a delightful dining experience. With a 5.0 rating, it's situated at coordinates (35.167491, 8.8334526), making it easily accessible.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1532,12 +1882,55 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out cafe-IN located at 5RCJ+W7P cafe-IN, laaziz ferchichi, el manar, rue aabd, Kasserine. This top-rated destination is perfect for kfyh lovers and offers a range of kfyh to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/cafe-IN/@35.172345,8.8306917,17z/data=!3m1!4b1!4m6!3m5!1s0x12f91569fc9366b5:0x948093769809526d!8m2!3d35.172345!4d8.8306917!16s%2Fg%2F11h3c48vqr?authuser=0&amp;entry=ttu.</t>
+          <t>**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you visit a highly-rated destination that specializes in kfyh and has a GPS coordinate of 35.167491, 8.8334526?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the unique water source of **Ayn al Qa'id**, rated 3.7 out of 5 stars on Google Maps.
+Mid-Morning: Head to **Cafe-IN** for a delightful coffee experience and immerse yourself in its inviting ambiance.
+Midday: Satisfy your taste buds with a savory lunch at **ASK Street food**, a popular fast food spot offering a wide range of dishes.
+Afternoon: Visit the **La Sirène Pizzeria**, rated 5.0 out of 5, for an authentic Italian cuisine experience.
+Evening: Take a stroll through the bustling streets of Kasserine and enjoy scenic views from the **Station des Bus de Kasserine**.
+Night: Unwind and relax at **Mac Food Kasserine**, a cozy cafe and grill, offering a wide range of grilled dishes.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Becha Lounge is a cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 5R9J+C6C Becha Lounge, Rue 18 Janvier 1952, Kasserine.
+Kasserine Resto, located at the Avenue Taieb Mhiri in Kasserine, Tunisia (coordinates: 35.168222653572, 8.832819236376), is a restaurant with a 5-star rating based on one review. Unfortunately, there is no further information available about this establishment, including its menu, hours of operation, or contact information.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1631,13 +2024,55 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a Source d'eau, check out `Ayn al Qa'id located at `Ayn al Qa'id, Kasserine. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from.
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.16667, 8.83333.</t>
+          <t>`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly rated Source d'eau attraction with GPS coordinates of 35.16667, 8.83333?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ayn al Qa'id, a source of water with historical significance.
+Mid-Morning: Visit Escape coffee shop for a refreshing cup of coffee and a delicious pastry.
+Midday: Try local cuisine at Wassel Sandwich, a highly-rated restaurant offering a variety of dishes.
+Afternoon: Stroll through the picturesque streets of Kasserine, immersing yourself in the local culture and atmosphere.
+Evening: Enjoy a scenic sunset at Pizza hot kasserine, admiring the breathtaking views while savoring a delicious pizza.
+Night: Relax and unwind in the cozy ambiance of Cafe-IN, sipping a warm beverage and soaking up the inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.
+Wassel Sandwich is a restaurant located in the heart of Kasserine, Tunisia (35.167491, 8.8334526). It offers a variety of dishes and has received 4 reviews, earning it a 5.0 rating. The restaurant is open from 08:00-22:00, and is closed on . You can contact Wassel Sandwich by phone at 23 196 788.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1747,14 +2182,55 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Brown Club located at Avenue Mohammed El Hammi, Kasserine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on [closed_on times]. To get there, use these GPS coordinates: 35.171924896443, 8.821844789959. For more details, visit their website at https://brownclub.ovh/ or call them at 92 299 007.</t>
+          <t>Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>At this top-rated destination in Kasserine, what can Cafe lovers enjoy amidst the highly-rated Cafe and Restaurant offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Escape coffee shop for a caffeine fix and local vibes.
+Mid-Morning: Visit Mat3em Salwa Wa Jahida for a local culinary experience.
+Midday: Head to Ayn al Qa'id for a serene break and soak in the natural beauty.
+Afternoon: Enjoy the cozy ambiance and delightful offerings at Cafe-IN.
+Evening: Savor authentic pizza flavors at Pizza hot kasserine while trying some local dishes.
+Night: Immerse yourself in the local culture at Mlawi Hlima restaurant for a memorable dining experience.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.
+Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1864,12 +2340,56 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for something fun to do, check out Brown Club located at Avenue Mohammed El Hammi, Kasserine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on none. To get there, use these GPS coordinates: 35.171924896443, 8.821844789959. For more details, visit their website at https://brownclub.ovh/ or call them at 92 299 007.</t>
+          <t>Brown Club, located at Avenue Mohammed El Hammi in Kasserine, is a popular cafe that offers a cozy ambiance and delicious food. It is known for its friendly atmosphere and excellent service, with a rating of 4.7 stars based on 6 reviews. Brown Club features a diverse menu with both cafe and restaurant offerings, catering to a wide range of tastes. Its prime location, with coordinates (35.171924896443, 8.821844789959), makes it easily accessible to customers.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you enjoy highly-rated cafe and restaurant options in Kasserine with a convenient location and extended hours?</t>
+          <t>Day Plan:
+Morning: Explore the historic landmarks of Kasserine, such as the ruins of the Roman city of Thelepte or the Islamic ruins of Kalaat es-Senam.
+Mid-Morning: Visit the Ayn al Qa'id water source and enjoy the natural beauty of the area.
+Midday: Try the local cuisine at Food llqmny, a restaurant known for its great food and service.
+Afternoon: Take a guided tour of the La Sirène pizzeria, a highly-rated pizzeria known for its authentic Italian dishes.
+Evening: Relax at a local spa or hotel and unwind with a massage or spa treatment.
+Night: Dine at Mlawi Hlima Restaurant, a local favorite known for its delicious fast food options and 5-star rating.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nirvana coffee shop is a cafe located in Kasserine, Tunisia. It is open from 8:00 AM to 11:00 PM and is closed on Sundays. The cafe has a rating of 4.3 out of 5 stars on Google and has been reviewed by 3 people. Nirvana coffee shop's main category is Cafe and it also offers the following categories: Cafe. The cafe is located at the coordinates (35.167491, 8.8334526) and its address is 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine.
+Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1975,14 +2495,55 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Food llqmny located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website at https://www.google.com/maps/place/Food+%D8%A7%D9%84%D9%84%D9%82%D9%85%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12f93f617e4b3ba9:0xdf4e7dff2a112637!8m2!3d35.1720368!4d8.8387586!16s%2Fg%2F11f66tmmq1!19sChIJqTtLfmE_-RIRNyYRKv99Tt8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 441 803.</t>
+          <t>Food llqmny, a restaurant located in Kasserine, Tunisia, offers a delightful dining experience. Located conveniently at coordinates (35.170153912725, 8.833513962143) on Rue 18 Janvier 1952, this restaurant opens its doors from 8:00 AM to 10:00 PM every day, except for the holidays. You can easily contact Food llqmny by calling them at 50 441 803.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find the top-rated Restaurant destination, Food llqmny, with a 4.5 rating and a wide selection of Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore My Way coffee shop, savor their unique coffee experience, and relish the cozy ambiance.
+Mid-Morning: Visit **Cafe-IN**, immerse yourself in its inviting atmosphere, and indulge in its delightful offerings.
+Midday: Try local cuisine at Restaurant GUSTO and savor their delicious Pizzeria offerings.
+Afternoon: Experience the vibrant culture at ASK Street food by sampling their diverse street food options.
+Evening: Relax and unwind at Mac Food Kasserine, enjoying their delectable grilled dishes and vibrant ambiance.
+Night: Engage in outdoor activities at Parc National de Kasserine, embarking on a thrilling hike or enjoying a serene picnic amidst the picturesque scenery.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+My Way coffee shop is a highly rated cafe in Kasserine, which offers visitors a unique and delicious coffee experience. It is open 24 hours a day, making it a great spot to grab a coffee at any time of day. The cafe has a cozy ambiance and friendly staff, ensuring a relaxing visit.
+This restaurant is located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 out of 5, and is open from 08:00 to 11:01. It is a restaurant that offers a variety of dishes.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2084,17 +2645,56 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Restaurant El Baraka located at 5R9G+4FW Restaurant El Baraka, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from.
-With a rating of 4.0, it's a must-visit spot. 
-It's open during these hours: 08:00-22:00, but closed on . 
-To get there, use these GPS coordinates: 35.7725988, -5.8086041. 
-For more details, visit their website or call them at 93 108 474.</t>
+          <t>Restaurant El Baraka is a highly-rated restaurant located in Kasserine, Tunisia. With a rating of 4.0, it has garnered positive feedback from customers. The restaurant offers a diverse menu, and its main category is Restaurant. It is situated at coordinates (35.7725988, -5.8086041).</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a variety of dining options in Kasserine?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe la rosa for a relaxing coffee break
+Mid-Morning: Trying local cuisine at Food llqmny for a taste of Kasserine's culinary delights
+Midday: Visiting `Ayn al Qa\'id, a water source offering a peaceful and natural retreat
+Afternoon: Shopping at the local market for unique souvenirs
+Evening: Enjoying a delicious fast food meal at Mlawi Hlima Restaurant
+Night: Relaxing at The Diesel's cafeteria with a warm beverage</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe la rosa, a 5-star rated cafe located in Kasserine (35.167491, 8.8334526), is a great place to relax and enjoy a cup of coffee. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is also a popular spot for locals to socialize and catch up with friends.
+Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2792,56 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great Pizzeria, check out La sirene located at 5RFP+2H8 La sirene, Kasserine. This top-rated destination offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/La+sir%C3%A8ne/data=!4m7!3m6!1s0x12f93f84a345b695:0x7974912249604897!8m2!3d35.1725267!4d8.8364544!16s%2Fg%2F11n0v047l8!19sChIJlbZFo4Q_-RIRl0hgSSKRdHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Which top-rated Pizzeria in Kasserine, known for its excellent selection and a rating of 5.0, can you visit using GPS coordinates 35.167491, 8.8334526?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the QUEEN CAFE, renowned for its cozy ambiance and delectable coffee.
+Mid-Morning: Immerse yourself in the vibrant culinary scene at **Cafe-IN**, treating your taste buds to authentic Tunisian flavors.
+Midday: Visit `Ayn al Qa\'id, a serene water source that offers a tranquil respite in the heart of Kasserine.
+Afternoon: Engage in outdoor recreation at Mac Food Kasserine's cafe and grill. Relish grilled delights while enjoying the bustling atmosphere.
+Evening: Indulge in an exquisite fast food experience at **Mlawi Hlima Restaurant**, highly acclaimed for its delectable offerings and impeccable service.
+Night: Unwind at The Diesel, a cozy eatery ideal for a relaxing evening. Savor the delectable menu while enjoying the convivial ambiance.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+QUEEN CAFE is a cafe located in Kasserine, Tunisia. It is open from 6 AM to 11 PM and is rated 4.5 stars on Google. The cafe is located at the coordinates (35.170153912725, 8.833513962143).
+Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2947,56 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a restaurant, check out Cafee Monalisa located at 5RCJ+W7P Cafee Monalisa, Kasserine. This top-rated destination offers a range of restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9e+Monalisa/data=!4m7!3m6!1s0x12f915f155555555:0x51cf82663fa3e668!8m2!3d35.172345!4d8.8306917!16s%2Fg%2F11fy4f4kg5!19sChIJVVVVVfEV-RIRaOajP2aCz1E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 021 957.</t>
+          <t>Cafee Monalisa is a restaurant located in Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is open from 8:00 AM to midnight and is closed on Sundays. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at 5RCJ+W7P, Kasserine, Tunisia.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>If you're visiting Kasserine and craving a top-rated dining experience, where can you go that offers a variety of restaurant options and boasts a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Visit the 'Ayn al Qa'id, a stunning source of water.
+Mid-Morning: Sample traditional Tunisian cuisine at Cafee Monalisa, known for its 5.0 rating and delectable food.
+Midday: Explore the exhibits at the captivating Museum of Islamic Art.
+Afternoon: Unwind with a relaxing spa treatment at a local spa or hotel.
+Evening: Indulge in a delightful dinner at Mlawi Hlima Restaurant, renowned for its 5-star rating and fast food offerings.
+Night: Experience the vibrant atmosphere of Nirvana coffee shop, offering a charming ambiance and high ratings.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nirvana coffee shop is a cafe located in Kasserine, Tunisia. It is open from 8:00 AM to 11:00 PM and is closed on Sundays. The cafe has a rating of 4.3 out of 5 stars on Google and has been reviewed by 3 people. Nirvana coffee shop's main category is Cafe and it also offers the following categories: Cafe. The cafe is located at the coordinates (35.167491, 8.8334526) and its address is 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine.
+Cafee Monalisa is a restaurant located in Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is open from 8:00 AM to midnight and is closed on Sundays. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at 5RCJ+W7P, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2410,12 +3098,56 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a quick bite, check out Mlawi Hlima- mlwy Hlym@ located at 5RCM+GWC Mlawi Hlima- mlwy Hlym@, Avenue 14 Janvier, Kasserine. This top-rated destination is perfect for fast food lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.1696446402, 8.831197917786. For more details, visit their website at  or call them at 55 520 520.</t>
+          <t>**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly-rated fast food destination with convenient GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ayn al Qa'id
+Mid-Morning: Enjoy local cuisine at Restaurant El Baraka
+Midday: Visit the historic Becha Lounge for a relaxing break
+Afternoon: Try traditional pizzas at La Sirene pizzeria
+Evening: Engage in cultural immersion at the Station des Bus de Kasserine
+Night: Relax with a soothing spa experience at a local establishment</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Becha Lounge is a cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 5R9J+C6C Becha Lounge, Rue 18 Janvier 1952, Kasserine.
+Restaurant El Baraka is a highly-rated restaurant located in Kasserine, Tunisia. With a rating of 4.0, it has garnered positive feedback from customers. The restaurant offers a diverse menu, and its main category is Restaurant. It is situated at coordinates (35.7725988, -5.8086041).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2521,14 +3253,56 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great restaurant, check out Espace Malouf located at 5R9M+JWJ Espace Malouf, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 6:00 AM to 1:00 AM. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/Espace+Malouf/data=!4m7!3m6!1s0x12f915f7b451415b:0xb1ce851e194fba1d!8m2!3d35.1690845!4d8.8347565!16s%2Fg%2F11c206xg4m!19sChIJW0FRtPcV-RIRHbpPGR6FzrE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 109 302.</t>
+          <t>Espace Malouf is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is open from 6:00 AM to 1:00 AM, and is closed on national holidays. Espace Malouf is located at the following coordinates: 35.167491, 8.8334526.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find the top-rated Espace Malouf restaurant that offers a variety of dining options, has a 4.1 rating, and is open from 6:00 AM to 1:00 AM?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Ayn al Qa'id water source.
+Mid-Morning: Savor local cuisine at the highly-rated Donna Margherita restaurant.
+Midday: Enjoy a guided tour of the impressive Station des Bus de Kasserine.
+Afternoon: Indulge in a delectable pizza hot at Pizza hot kasserine.
+Evening: Participate in the lively atmosphere at the Diesel cafeteria.
+Night: Experience cultural immersion at the intriguing Musée de Kasserine.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bloom café is a café located in Kasserine, Tunisia, at the coordinates (35.5652076, 8.4481267). It is open from 7:00 am to midnight, and is closed on no specific days. It has a rating of 5.0 out of 5 stars, based on 3 reviews.
+Donna Margherita is a popular restaurant located in Kasserine, Tunisia, known for its delicious food and warm ambiance. It offers a variety of dishes to satisfy every taste, from traditional Tunisian cuisine to international favorites. With an average rating of 4.3 out of 5, Donna Margherita has earned a reputation for providing excellent service and a welcoming atmosphere. It is located at 5RCQ+3F6 Donna Margherita, P13, Kasserine, Tunisia and is open 24 hours a day. If you're looking for a great dining experience in Kasserine, be sure to visit Donna Margherita.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2630,12 +3404,55 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Mac Food Kasserine located at the 5RC4+C32 Mac Food Kasserine. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/Mac+Food+Kasserine/data=!4m7!3m6!1s0x12f9150ca46229f3:0xbd48eff8dfa5b58d!8m2!3d35.1710245!4d8.805139!16s%2Fg%2F11f61n9qzv!19sChIJ8ylipAwV-RIRjbWl3_jvSL0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number not available].</t>
+          <t>Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated cafe and restaurant in Kasserine that serves Cafe et restaurant de grillades and holds a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Exploring `Ayn al Qa'id
+Mid-Morning: Trying local cuisine at Pizza hot kasserine
+Midday: Visiting Salon De The Montana
+Afternoon: Taking a guided tour of Station des Bus de Kasserine
+Evening: Experiencing cultural immersion at The Diesel
+Night: Enjoying scenic views at Cafe-IN</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Montana is a highly-rated cafe in Kasserine, Tunisia, with a 4.3 rating based on 6 reviews. This cafe opens from 06:00-22:00 and is located at the coordinates (35.167491, 8.8334526). While the description and website are currently unavailable, Salon De The Montana offers a range of cafe-style offerings in the heart of Kasserine.
+Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2741,12 +3558,55 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Located at 5R8J+FMJ Restaurant La Terrasse in Kasserine, Restaurant La Terrasse is a top-rated destination for food enthusiasts. This restaurant offers a range of cuisines, making it perfect for dining out. With a rating of 4.7, it's a must-visit spot for those seeking a memorable culinary experience. It's open 24 hours a day, providing ample opportunities to satisfy your cravings. For more details, visit their website or call them at 99 704 504.</t>
+          <t>Restaurant La Terrasse is a highly-rated restaurant in Kasserine, Tunisia, with a 4.7-star rating from 15 reviews. It is open 24 hours a day and offers a variety of dining options. The restaurant is located at 5R8J+FMJ, Restaurant La Terrasse, P13, Kasserine, Tunisia, and can be contacted by phone at 99 704 504.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with round-the-clock availability, offering a diverse culinary experience in Kasserine?</t>
+          <t>Day Plan:
+Morning: Explore the historical Donna Margherita restaurant and savor its delectable Tunisian and international cuisine.
+Mid-Morning: Visit 'Ayn al Qa'id, a natural source of water, for a refreshing break and a serene ambiance.
+Midday: Indulge in a delightful lunch at Mlawi Hlima restaurant, known for its exquisite fast food.
+Afternoon: Participate in an engaging guided tour of the Station des Bus de Kasserine, immersing yourself in the local transportation system.
+Evening: Enjoy a memorable dinner at La sirene, a pizzeria offering a tantalizing variety of pizzas.
+Night: Experience the vibrant atmosphere of Cafe-IN, a cozy café where you can relax and soak in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Jawhra, located at 35.3091495, 8.8142297 in Kasserine, is a popular cafe known for its cozy ambiance and delicious coffee. The cafe offers a wide variety of beverages and snacks to satisfy your cravings, and its convenient location makes it a perfect spot to relax and unwind.
+Donna Margherita is a popular restaurant located in Kasserine, Tunisia, known for its delicious food and warm ambiance. It offers a variety of dishes to satisfy every taste, from traditional Tunisian cuisine to international favorites. With an average rating of 4.3 out of 5, Donna Margherita has earned a reputation for providing excellent service and a welcoming atmosphere. It is located at 5RCQ+3F6 Donna Margherita, P13, Kasserine, Tunisia and is open 24 hours a day. If you're looking for a great dining experience in Kasserine, be sure to visit Donna Margherita.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2852,14 +3712,61 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Cafe El Jawhra located at 1254 P13, Kasserine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3091495, 8.8142297. For more details, visit their website at  or call them at 93 658 789.</t>
+          <t>Cafe El Jawhra, located at 35.3091495, 8.8142297 in Kasserine, is a popular cafe known for its cozy ambiance and delicious coffee. The cafe offers a wide variety of beverages and snacks to satisfy your cravings, and its convenient location makes it a perfect spot to relax and unwind.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>If you're seeking a highly-rated destination in Kasserine for your caffeine fix, where can you find a top-rated cafe offering a diverse selection of options?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic town of Kasserine, including the main square and the old city walls.
+**Mid-Morning:**
+- Visit the Ayn al Qa'id water source to enjoy its natural beauty and tranquil ambiance.
+**Midday:**
+- Have lunch at Pizzeria Le Maximum, savoring authentic Tunisian cuisine in a cozy atmosphere.
+**Afternoon:**
+- Escape the city hustle at Mac Food Kasserine, indulging in a delightful grilled meal by the grill.
+**Evening:**
+- Experience the vibrant street food scene at ASK Street Food, exploring local delicacies and flavors.
+**Night:**
+- Relax and socialize at Brown Club, enjoying a variety of drinks, food, and live music in a lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.
+Pizzeria Le Maximum is a restaurant located in Kasserine, Tunisia. It serves a variety of dishes, including pizza, pasta, and salads. The restaurant is open from 8am to 7pm, and is closed on Sundays. It is located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3868,55 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a top-rated Cafeteria with a rating of 4.3, check out The Diesel located at 5R9J+3C6 The Diesel. It's a must-visit spot that offers a range of Cafeteria to choose from. The Diesel is open during the following hours: workday_timing and is closed on the following days: closed_on. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more information, visit their website at link or call them at 54 461 936.</t>
+          <t>The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.3 out of 5) Cafeteria with a wide selection of options in Kasserine, open during specified hours and closed on certain days?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe la rosa (Relax with a cup of coffee and enjoy the ambiance)
+Mid-Morning: Trying local cuisine at Mat3em Salwa Wa Jahida (Indulge in authentic Tunisian dishes)
+Midday: Visiting La Sirène (Savor delicious pizzas in a cozy pizzeria atmosphere)
+Afternoon: Enjoying scenic views at `Ayn al Qa\'id (Admire the natural beauty of this water source)
+Evening: Participating in an event at ASK Street food (Experience the vibrant street food culture)
+Night: Relaxing with a grilled dish at Mac Food Kasserine (Unwind and enjoy a satisfying meal)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe la rosa, a 5-star rated cafe located in Kasserine (35.167491, 8.8334526), is a great place to relax and enjoy a cup of coffee. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is also a popular spot for locals to socialize and catch up with friends.
+Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3072,12 +4022,55 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>In Kasserine, indulge in a delightful dining experience at Donna Margherita, located at 5RCQ+3F6 Donna Margherita, P13. This top-rated restaurant offers a delectable array of culinary delights, perfect for all food enthusiasts. With a rating of 4.3, Donna Margherita is a must-visit destination for those seeking a memorable meal. It operates 24/7, providing ample time to satisfy your cravings. For more information, call them at 92 126 004.</t>
+          <t>Donna Margherita is a popular restaurant located in Kasserine, Tunisia, known for its delicious food and warm ambiance. It offers a variety of dishes to satisfy every taste, from traditional Tunisian cuisine to international favorites. With an average rating of 4.3 out of 5, Donna Margherita has earned a reputation for providing excellent service and a welcoming atmosphere. It is located at 5RCQ+3F6 Donna Margherita, P13, Kasserine, Tunisia and is open 24 hours a day. If you're looking for a great dining experience in Kasserine, be sure to visit Donna Margherita.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you embark on a culinary adventure at a highly acclaimed restaurant that operates around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ayn al Qa'id, a water source with a historical significance.
+Mid-Morning: Visit the QUEEN CAFE for a delightful breakfast and immerse yourself in the local ambiance.
+Midday: Treat yourself to a delicious lunch at Pizzeria Le Maximum, savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Engage in some retail therapy at the local market and discover unique souvenirs and local products.
+Evening: Indulge in a delightful dinner at Restaurant GUSTO, enjoying the delectable Pizzeria experience and ambiance.
+Night: Relax and unwind at Mac Food Kasserine, indulging in the cozy atmosphere while enjoying a refreshing beverage.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+QUEEN CAFE is a cafe located in Kasserine, Tunisia. It is open from 6 AM to 11 PM and is rated 4.5 stars on Google. The cafe is located at the coordinates (35.170153912725, 8.833513962143).
+Pizzeria Le Maximum is a restaurant located in Kasserine, Tunisia. It serves a variety of dishes, including pizza, pasta, and salads. The restaurant is open from 8am to 7pm, and is closed on Sundays. It is located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3179,12 +4172,55 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great dining experience, check out Wassel located at P13. This top-rated restaurant is perfect for food lovers and offers a delightful culinary experience. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 20:00-00:00, but closed on Monday, Tuesday, Friday, and Saturday. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at</t>
+          <t>Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining experience with a 4.0 rating and a delightful culinary experience located near the GPS coordinates 35.167491, 8.8334526?</t>
+          <t>Day Plan:
+Morning: Explore the historic 'Ayn al Qa'id, a local water source.
+Mid-Morning: Try local cuisine at Mlawi Hlima restaurant, known for its fast food options.
+Midday: Visit the Station des Bus de Kasserine, the main bus station in the city, and witness the local transportation hub.
+Afternoon: Enjoy outdoor activities at Mac Food Kasserine, a cafe and grill with a range of grilled dishes and a relaxing atmosphere.
+Evening: Experience cultural immersion at the Brown Club, a popular cafe with a cozy atmosphere and a high rating for its friendly service and delicious menu.
+Night: Take a guided tour of Pizzeria Le Maximum, a well-reviewed restaurant serving pizza, pasta, and salads, to learn about the local culinary scene.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.
+Pizzeria Le Maximum is a restaurant located in Kasserine, Tunisia. It serves a variety of dishes, including pizza, pasta, and salads. The restaurant is open from 8am to 7pm, and is closed on Sundays. It is located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3290,12 +4326,55 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Restaurant, check out Food llqmny located at  5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine. With a 4.5-star rating, this must-visit spot offers a range of categories to choose from. It's open from 08:00-22:00, but closed on . To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website or call them at 50 441 803.</t>
+          <t>Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 4.5-star rating in Kasserine, offering a variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the scenic `Ayn al Qa\'id` source of water.
+Mid-Morning: Visit the historic Bloom café for a traditional Tunisian breakfast.
+Midday: Try local cuisine at ASK Street Food, offering a wide variety of dishes.
+Afternoon: Take a guided tour of the Station des Bus de Kasserine to learn about its transportation services.
+Evening: Relax with a massage at a local spa.
+Night: Enjoy dinner and live music at Cafe-IN for a cozy and memorable evening.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bloom café is a café located in Kasserine, Tunisia, at the coordinates (35.5652076, 8.4481267). It is open from 7:00 am to midnight, and is closed on no specific days. It has a rating of 5.0 out of 5 stars, based on 3 reviews.
+This restaurant is located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 out of 5, and is open from 08:00 to 11:01. It is a restaurant that offers a variety of dishes.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3397,12 +4476,56 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a great place to eat, check out Wassel Sandwich located at P13. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website or call them at 23 196 788.</t>
+          <t>Wassel Sandwich is a restaurant located in the heart of Kasserine, Tunisia (35.167491, 8.8334526). It offers a variety of dishes and has received 4 reviews, earning it a 5.0 rating. The restaurant is open from 08:00-22:00, and is closed on . You can contact Wassel Sandwich by phone at 23 196 788.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Kasserine, perfect for restaurant lovers, with a diverse menu and exceptional customer reviews?</t>
+          <t>Day Plan:
+Morning: Exploring Dar zuhur
+Mid-Morning: Trying local cuisine at Mat3em Salwa Wa Jahida
+Midday: Visiting '`Ayn al Qa\'id`
+Afternoon: Enjoying a pizza at La Sirène
+Evening: Shopping at the local market
+Night: Relaxing with a drink at **Cafe-IN**</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar zuhur is a cafe located in Dar zuhur, Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews.
+Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3508,12 +4631,56 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Indulge in the exquisite flavors of Flamingo Salt &amp;Sugar, a top-rated cafe located at Rue 14 Janvier, Kasserine. With its inviting atmosphere and skillfully crafted menu, Flamingo Salt &amp;Sugar is a haven for coffee enthusiasts. Open from 8 AM to 10 PM, this charming cafe beckons you to savor its aromatic brews and delectable treats. To find this culinary gem, simply follow the coordinates 41.9741587, 2.7925862. For further inquiries, feel free to call 27 770 760.</t>
+          <t>Flamingo Salt &amp; Sugar is a cafe in Kasserine, Tunisia, which offers a 5-star-rated experience. The cafe has a convenient location on Rue 14 Janvier with workday hours from 8 AM to 10 PM. Additionally, the cafe offers a featured image on Google Maps. Unfortunately, there is currently no available information on the cafe's website or description.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find Flamingo Salt &amp; Sugar, a highly acclaimed cafe known for its delightful coffee and charming atmosphere, located near specific coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring the local market for traditional souvenirs and handicrafts.
+Mid-Morning: Trying local cuisine at Mlawi Hlima Restaurant for a highly-rated fast-food experience.
+Midday: Visiting Ayn al Qa'id, a natural source of water, or exploring the Diesel cafeteria for a bite to eat.
+Afternoon: Shopping at Station des Bus de Kasserine for unique items and local products.
+Evening: Relaxing and enjoying a coffee at My Way coffee shop, known for its inviting ambiance.
+Night: Experiencing the local nightlife at Kasserine Resto, a highly-rated restaurant with live music and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+My Way coffee shop is a highly-rated cafe located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It is open 24 hours a day, offering a convenient and inviting space for patrons.
+Kasserine Resto, located at the Avenue Taieb Mhiri in Kasserine, Tunisia (coordinates: 35.168222653572, 8.832819236376), is a restaurant with a 5-star rating based on one review. Unfortunately, there is no further information available about this establishment, including its menu, hours of operation, or contact information.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3619,14 +4786,55 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out The Twins Coffee located at 14 Rue 18 Janvier 1952, Kasserine 1200. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.1894655, 8.7854606. For more details, visit their website at https://www.google.com/maps/place/The+Twins+Coffee/data=!4m7!3m6!1s0x12f9158636fa30e7:0xf65236a8f833ee75!8m2!3d35.1687219!4d8.829934!16s%2Fg%2F11rfc81lp7!19sChIJ5zD6NoYV-RIRde4z-Kg2UvY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 452 925.</t>
+          <t>The Twins Coffee is a highly rated cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a welcoming atmosphere with a 4.8-star rating. Nestled on Rue 18 Janvier 1952, this cafe offers a convenient location for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe open 24 hours a day in Kasserine?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Station des Bus de Kasserine** (Bus Station) and immerse yourself in the local transportation scene.
+Mid-Morning: Visit the **Ayn al Qa\'id** (Source of Water) for a tranquil moment amidst nature.
+Midday: Indulge in local cuisine at the highly-rated **Restaurant La Terrasse**, known for its diverse dining options.
+Afternoon: Explore the charming **Cafe-IN**, a cozy spot for a relaxing coffee break and experiencing the local cafe culture.
+Evening: Enjoy authentic Tunisian flavors at **Mlawi Hlima** restaurant, offering fast food options.
+Night: Explore the lively ambiance of **Mac Food Kasserine**, a cafe and grill that serves grilled delights and offers a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.
+Restaurant La Terrasse is a highly-rated restaurant in Kasserine, Tunisia, with a 4.7-star rating from 15 reviews. It is open 24 hours a day and offers a variety of dining options. The restaurant is located at 5R8J+FMJ, Restaurant La Terrasse, P13, Kasserine, Tunisia, and can be contacted by phone at 99 704 504.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3732,14 +4940,55 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great cafe, check out QUEEN CAFE located at QUEEN CAFE, Rue 18 janvier 1952 Kasserine, Kasserine 1200. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website at nan or call them at 54 838 767.</t>
+          <t>QUEEN CAFE is a cafe located in Kasserine, Tunisia. It is open from 6 AM to 11 PM and is rated 4.5 stars on Google. The cafe is located at the coordinates (35.170153912725, 8.833513962143).</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly-rated cafe known for its exceptional range of Cafe offerings?</t>
+          <t>Day Plan:
+Morning: Start the day with a visit to 'Ayn al Qa'id. Embark on a refreshing walk to the source of water and enjoy the scenic beauty it offers.
+Mid-Morning: Head to Mac Food Kasserine, a highly-rated cafe and grill. Indulge in a delectable breakfast while savoring the local flavors it offers.
+Midday: Explore the captivating cultural heritage of Kasserine by visiting the Kasserine Museum. Dive into the rich history and traditions of the region through its captivating exhibits.
+Afternoon: Experience the vibrant atmosphere of the city by taking a leisurely stroll through the bustling souks (markets). Engage with friendly locals and immerse yourself in the authentic shopping experience.
+Evening: Delight your taste buds with an exquisite dining experience at La Sirène, a pizzeria renowned for its mouthwatering pizzas and delectable Italian dishes. Allow the flavors to transport you to the heart of Italy.
+Night: Unwind and soak in the serene ambiance of the Diesel cafeteria. Enjoy a nightcap while engaging in lively conversations with fellow travelers and locals, creating memorable connections.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+My Way coffee shop is a highly rated cafe in Kasserine, which offers visitors a unique and delicious coffee experience. It is open 24 hours a day, making it a great spot to grab a coffee at any time of day. The cafe has a cozy ambiance and friendly staff, ensuring a relaxing visit.
+Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3845,14 +5094,56 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Pizzeria Le Maximum sfyn mlky located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-19:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at  or call them at 55 440 909.</t>
+          <t>Pizzeria Le Maximum is a restaurant located in Kasserine, Tunisia. It serves a variety of dishes, including pizza, pasta, and salads. The restaurant is open from 8am to 7pm, and is closed on Sundays. It is located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine, Tunisia.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a wide selection of dining options in Kasserine?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of **Ayn al Qa'id**, a natural water source.
+Mid-Morning: Try local cuisine for breakfast at **Cafe-IN**, a cozy café with a warm ambiance.
+Midday: Visit **Cafee Monalisa**, a 5-star rated restaurant, and indulge in a delectable lunch while admiring the scenic views.
+Afternoon: Enjoy the vibrant atmosphere at the **Escape coffee shop**, known for its great coffee and pastries.
+Evening: Experience the lively ambiance and delicious fast food at **Mlawi Hlima Restaurant**, a local favorite.
+Night: Take a stroll through the city center to soak in the local culture and enjoy the serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in kasserine, Tunisia. It has a rating of 4.3 out of 5 stars based on 3 reviews. The cafe is open from 8:00 AM to 10:00 PM and is closed on no specific days. It offers a variety of food and drink options, including coffee, tea, sandwiches, and pastries. The cafe also has a website and an Instagram page.
+Cafee Monalisa is a 5-star rated restaurant located in Kasserine, Tunisia (35.167491, 8.8334526). It is open from 8:00 AM to 12:00 AM daily and offers a variety of dining options. The restaurant is known for its excellent service and delicious food, and is a popular destination for both locals and tourists.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3958,14 +5249,55 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great Cafe, check out Bloom cafe located at Bloom cafe, Kasserine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.5652076, 8.4481267. For more details, call them at 55 533 671.</t>
+          <t>Bloom café is a café located in Kasserine, Tunisia, at the coordinates (35.5652076, 8.4481267). It is open from 7:00 am to midnight, and is closed on no specific days. It has a rating of 5.0 out of 5 stars, based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly rated Cafe (5.0) with a comprehensive selection, making it a must-visit destination for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Try local cuisine at My Way coffee shop.
+Mid-Morning: Visit the Ruins of Henchir el-Hamma.
+Midday: Explore Ayn al Qa’id.
+Afternoon: Take a guided tour of Station des Bus de Kasserine.
+Evening: Relax with a massage at a local spa.
+Night: Enjoy scenic views at Mac Food Kasserine.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+My Way coffee shop is a highly-rated cafe located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It is open 24 hours a day, offering a convenient and inviting space for patrons.
+Cafee Monalisa is a 5-star rated restaurant located in Kasserine, Tunisia (35.167491, 8.8334526). It is open from 8:00 AM to 12:00 AM daily and offers a variety of dining options. The restaurant is known for its excellent service and delicious food, and is a popular destination for both locals and tourists.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4071,14 +5403,55 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out ASK Street food located at 5R9J+PVQ Rue 18 Janvier 1952.
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-17:00. To get there, use these GPS coordinates: 35.7703677, 10.8292411. For more details, visit their website at https://www.google.com/maps/place/ASK+Street+food/data=!4m7!3m6!1s0x12f91549d0e3e8dd:0x4908a7eb397d4fb3!8m2!3d35.1693397!4d8.8322327!16s%2Fg%2F11kt3kgbzv!19sChIJ3ejj0EkV-RIRs099OeunCEk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 050 768.</t>
+          <t>ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a top-rated Restauration rapide destination with a 5.0 rating, perfect for lovers of fast food?</t>
+          <t>Day Plan:
+Morning: Explore the **Brown Club**, a cozy cafe with a welcoming atmosphere and a diverse menu catering to various tastes.
+Mid-Morning: Visit the ancient **Ayn al Qa'id**, a natural water source offering a tranquil and serene setting.
+Midday: Indulge in local cuisine at **Mlawi Hlima** restaurant, known for its fast food and highly rated service.
+Afternoon: Engage in outdoor activities like hiking or biking at the **Parc National de Jbil**.
+Evening: Experience scenic views from the **Belvédère de Kasserine**, a viewpoint with breathtaking panoramic vistas.
+Night: Relax and enjoy live music or a cultural performance at **The Diesel**, a cafeteria with a vibrant atmosphere and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located at Avenue Mohammed El Hammi in Kasserine, is a popular cafe that offers a cozy ambiance and delicious food. It is known for its friendly atmosphere and excellent service, with a rating of 4.7 stars based on 6 reviews. Brown Club features a diverse menu with both cafe and restaurant offerings, catering to a wide range of tastes. Its prime location, with coordinates (35.171924896443, 8.821844789959), makes it easily accessible to customers.
+Kasserine Resto, located at the Avenue Taieb Mhiri in Kasserine, Tunisia (coordinates: 35.168222653572, 8.832819236376), is a restaurant with a 5-star rating based on one review. Unfortunately, there is no further information available about this establishment, including its menu, hours of operation, or contact information.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4184,14 +5557,56 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Sketch CoffeeShop located at Sketch CoffeeShop, Kasserine 1200. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.1894655, 8.7854606. For more details, visit their website at  or call them at 96 912 209.</t>
+          <t>Sketch CoffeeShop is a highly-rated cafe located in Kasserine, Tunisia. It offers a cozy and inviting atmosphere with a focus on quality coffee and delectable treats. The cafe's convenient location and extended hours make it an ideal spot for locals and visitors alike to relax and socialize.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe hotspot (Sketch CoffeeShop) with a perfect 5.0 rating in Kasserine?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic and scenic `Ayn al Qa\'id` water source.
+**Mid-Morning:** Indulge in a delicious fast food meal at the highly-rated **Mlawi Hlima Restaurant**.
+**Midday:** Visit the **Station des Bus de Kasserine** for transit options to other destinations.
+**Afternoon:** Try local cuisine at **Wassel**, known for its wide range of dishes and high ratings.
+**Evening:** Enjoy a delightful coffee and snack at **Cafe El Jawhra**, known for its cozy ambiance.
+**Night:** Experience the lively atmosphere of **La sirene**, a pizzeria with excellent reviews and a variety of pizza options.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Jawhra, located at 35.3091495, 8.8142297 in Kasserine, is a popular cafe known for its cozy ambiance and delicious coffee. The cafe offers a wide variety of beverages and snacks to satisfy your cravings, and its convenient location makes it a perfect spot to relax and unwind.
+Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4297,12 +5712,56 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Cafe, check out Escape coffee shop located at 5RJ8+PQ Escape coffee shop, Kasserine. This must-visit spot is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://instagram.com/escapeeclub%3Figshid%3DOGQ2MjdiOTE%3D or call them at 99 508 600.</t>
+          <t>Escape coffee shop is a cafe located in kasserine, Tunisia. It has a rating of 4.3 out of 5 stars based on 3 reviews. The cafe is open from 8:00 AM to 10:00 PM and is closed on no specific days. It offers a variety of food and drink options, including coffee, tea, sandwiches, and pastries. The cafe also has a website and an Instagram page.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find the highly-rated Escape coffee shop, known for its exceptional Cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore 'Ayn al Qa\'id, a natural source of water with beautiful views.
+Mid-Morning: Visit La Sirène for a delightful Italian lunch and indulge in their famous pizzas.
+Midday: Take a guided tour of the Station des Bus de Kasserine to learn about local transportation and engage with the friendly staff.
+Afternoon: Shop for souvenirs and local products at a nearby market or mall.
+Evening: Experience the lively ambiance at Wassel, a highly-rated restaurant offering authentic Tunisian cuisine.
+Night: Relax with a peaceful stroll through [Park Name], enjoying the scenic views and cool evening air.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+My Way coffee shop is a highly rated cafe in Kasserine, which offers visitors a unique and delicious coffee experience. It is open 24 hours a day, making it a great spot to grab a coffee at any time of day. The cafe has a cozy ambiance and friendly staff, ensuring a relaxing visit.
+Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4408,14 +5867,55 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Nirvana coffee shop located at 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website or call them at 56 729 775.</t>
+          <t>Nirvana coffee shop is a cafe located in Kasserine, Tunisia. It is open from 8:00 AM to 11:00 PM and is closed on Sundays. The cafe has a rating of 4.3 out of 5 stars on Google and has been reviewed by 3 people. Nirvana coffee shop's main category is Cafe and it also offers the following categories: Cafe. The cafe is located at the coordinates (35.167491, 8.8334526) and its address is 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy ambiance in Kasserine?</t>
+          <t>Day Plan:
+Morning: Explore the lively market of Avenue 14 Janvier, Kasserine, and immerse yourself in the local culture.
+Mid-Morning: Visit the Ayn al Qa'id, a source of water, and discover its natural beauty.
+Midday: Try local cuisine at Mlawi Hlima restaurant, known for its fast food options with a 5.0 rating.
+Afternoon: Take a guided tour of the Station des Bus de Kasserine, the city's main bus station, to learn about its transportation services.
+Evening: Enjoy scenic views at the The Twins Coffee, a highly-rated cafe with a welcoming atmosphere.
+Night: Relax and enjoy the nightlife at Cafee Monalisa, a restaurant with a 5.0 rating offering a variety of dishes and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Twins Coffee is a highly rated cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a welcoming atmosphere with a 4.8-star rating. Nestled on Rue 18 Janvier 1952, this cafe offers a convenient location for locals and visitors alike.
+Cafee Monalisa is a restaurant located in Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is open from 8:00 AM to midnight and is closed on Sundays. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at 5RCJ+W7P, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4521,13 +6021,56 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in kasserine and searching for somewhere great to go, head to My Way coffee shop located at 5RFW+PH9 My Way coffee shop, Kasserine. 
-This highly rated spot is perfect for Cafe fans and is open 24h/24. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more information, call them at 97 221 055.</t>
+          <t>My Way coffee shop is a highly rated cafe in Kasserine, which offers visitors a unique and delicious coffee experience. It is open 24 hours a day, making it a great spot to grab a coffee at any time of day. The cafe has a cozy ambiance and friendly staff, ensuring a relaxing visit.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly rated cafe that's open 24/7?</t>
+          <t>Day Plan:
+Morning: Exploring Creperie la Joie
+Mid-Morning: Trying local cuisine at Mlawi Hlima Restaurant
+Midday: Visiting Ayn al Qa'id
+Afternoon: Enjoying scenic views at La sirene
+Evening: Participating in an event at Station des Bus de Kasserine
+Night: Relaxing with a coffee at Bloom café</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bloom café is a café located in Kasserine, Tunisia. Featured in the cafe category, the establishment also serves beverages to its customers. Among its top-rated features, the cafe’s weekday hours run from 7:00 am to midnight, with no specific closing days. In case you need to contact the cafe, its telephone number is provided as 55 533 671. Reviews for this cafe are highly positive.
+Located in Kasserine, Creperie la Joie is a restaurant offering a delightful dining experience. With a 5.0 rating, it's situated at coordinates (35.167491, 8.8334526), making it easily accessible.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4633,12 +6176,55 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a great restaurant, check out Creperie la Joie at 5VH3+QRJ, Avenue de l'environnement. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at [No website available] or call them at 93 318 998.</t>
+          <t>Located in Kasserine, Creperie la Joie is a restaurant offering a delightful dining experience. With a 5.0 rating, it's situated at coordinates (35.167491, 8.8334526), making it easily accessible.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What top-rated restaurant in Kasserine with a 5.0 rating is known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Ayn al Qa'id.
+Mid-Morning: Try local cuisine at "Wassel" restaurant for an authentic culinary experience.
+Midday: Visit the Brown Club to relax and have a meal, indulging in the local atmosphere and enjoying the highly-rated menu.
+Afternoon: Discover the vibrant Station des Bus de Kasserine and witness the bustling transportation hub of the city.
+Evening: Head to "Cafe-IN" for a cozy ambiance and delightful refreshments.
+Night: Visit Restaurant GUSTO for a delicious dining experience specializing in Pizzeria cuisine.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.
+Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4736,14 +6322,55 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out La sirene located at 5RFP+2H8 La sirene, Kasserine. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+sir%C3%A8ne/data=!4m7!3m6!1s0x12f93f84a345b695:0x7974912249604897!8m2!3d35.1725267!4d8.8364544!16s%2Fg%2F11n0v047l8!19sChIJlbZFo4Q_-RIRl0hgSSKRdHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at their number.</t>
+          <t>La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria restaurant with a 5.0 rating in Kasserine, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the Escape coffee shop, a local cafe known for its delicious coffee and pastries.
+Mid-Morning: Visit Ayn al Qa'id, a natural source of water with serene surroundings, perfect for relaxation.
+Midday: Savor local cuisine at Food llqmny, a highly-rated restaurant offering exceptional food and service.
+Afternoon: Escape the heat and indulge in a relaxing spa treatment at Mac Food Kasserine, a cafe and grill that offers a range of soothing treatments.
+Evening: Experience the vibrant ambiance of La sirene, a pizzeria with a 5-star rating, and savor the authentic flavors of their pizzas.
+Night: Participate in the lively atmosphere at ASK Street food, a fast food restaurant known for its diverse menu and late-night hours.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.
+Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4845,12 +6472,56 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Pizza hot kasserine located at 5R9M+GP5 Pizza hot kasserine, Kasserine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, call them at 28 740 708.</t>
+          <t>Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you indulge in a delicious Pizzeria experience with a 4.5-star rating while exploring Kasserine?</t>
+          <t>Day Plan:
+Morning: Exploring Ayn al Qa'id, a water source with historical significance
+Mid-Morning: Trying local cuisine at Cafe la rosa, a 5-star rated cafe known for its coffee and ambiance
+Midday: Visiting Station des Bus de Kasserine, the main bus station in Kasserine, offering transportation to various destinations
+Afternoon: Shopping at Mac Food Kasserine, a cafe and grill with a wide range of grilled dishes and a 4.0 rating
+Evening: Enjoying scenic views at Restaurant GUSTO, a pizzeria with a 4.0 rating and a rooftop terrace offering panoramic city views
+Night: Experiencing cultural immersion at the Diesel, a cafeteria with an average rating of 4.3, featuring traditional Tunisian music and entertainment</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe la rosa, a 5-star rated cafe located in Kasserine (35.167491, 8.8334526), is a great place to relax and enjoy a cup of coffee. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is also a popular spot for locals to socialize and catch up with friends.
+Pizzeria Le Maximum is a restaurant located in Kasserine, Tunisia. It serves a variety of dishes, including pizza, pasta, and salads. The restaurant is open from 8am to 7pm, and is closed on Sundays. It is located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine, Tunisia.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4952,12 +6623,56 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Restaurant, check out Mat3em Salwa Wa Jahida located at 7ay Fate7, Kasserine 1200. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.1894655, 8.7854606. For more details, visit their website at https://www.google.com/maps/place/Mat3em+Salwa+Wa+Jahida/data=!4m7!3m6!1s0x12f93faf7cb53c39:0xf0f5ca54307284d3!8m2!3d35.1712983!4d8.8509857!16s%2Fg%2F11vbrvmrj7!19sChIJOTy1fK8_-RIR04RyMFTK9fA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 910 071.</t>
+          <t>Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant that is open 24 hours a day in Kasserine?</t>
+          <t>Day Plan:
+Morning: Exploring Bloom café
+Mid-Morning: Trying local cuisine at Restaurant La Terrasse
+Midday: Visiting Ayn al Qa'id
+Afternoon: Enjoying pizza at Pizza Hot Kasserine
+Evening: Relaxing and dining at Mlawi Hlima Restaurant
+Night: Experiencing scenic views at Station des Bus de Kasserine</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bloom café is a café located in Kasserine, Tunisia. Featured in the cafe category, the establishment also serves beverages to its customers. Among its top-rated features, the cafe’s weekday hours run from 7:00 am to midnight, with no specific closing days. In case you need to contact the cafe, its telephone number is provided as 55 533 671. Reviews for this cafe are highly positive.
+Restaurant La Terrasse is a highly-rated restaurant in Kasserine, Tunisia, with a 4.7-star rating from 15 reviews. It is open 24 hours a day and offers a variety of dining options. The restaurant is located at 5R8J+FMJ, Restaurant La Terrasse, P13, Kasserine, Tunisia, and can be contacted by phone at 99 704 504.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5051,12 +6766,56 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out kasserine resto located at 5R9M+JWJ kasserine resto, Avenue Taieb Mhiri, Kasserine. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.168222653572, 8.832819236376. For more details, visit their link at https://www.google.com/maps/place/kasserine+resto/data=!4m7!3m6!1s0x12f91593f5f1a921:0xa8cfec0e1830fd65!8m2!3d35.1690829!4d8.8347579!16s%2Fg%2F11pbf8y1yt!19sChIJIanx9ZMV-RIRZf0wGA7sz6g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Kasserine Resto, located at the Avenue Taieb Mhiri in Kasserine, Tunisia (coordinates: 35.168222653572, 8.832819236376), is a restaurant with a 5-star rating based on one review. Unfortunately, there is no further information available about this establishment, including its menu, hours of operation, or contact information.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly-rated top destination with a 5.0 rating, perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historic city center of Kasserine, including the old Medina and the Great Mosque.
+Mid-Morning: Visit the `Ayn al Qa\'id source of water, a natural spring with beautiful surroundings.
+Midday: Try local cuisine at Mat3em Salwa Wa Jahida, a highly-rated restaurant serving traditional Tunisian dishes.
+Afternoon: Relax and enjoy the scenic views at the **Cafe-IN** café, known for its cozy atmosphere and delicious coffee.
+Evening: Experience cultural immersion at the Kasserine Museum, showcasing the region's history and cultural heritage.
+Night: Enjoy a delicious fast food dinner at **Mlawi Hlima Restaurant**, known for its 5-star rating and convenient location.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Brown Club is a highly-rated cafe and restaurant located in Kasserine, Tunisia. It offers a cozy atmosphere and a wide selection of food and beverages. The cafe is known for its excellent coffee and pastries, while the restaurant serves up delicious meals prepared with fresh ingredients. The Brown Club is a popular spot for locals and tourists alike, and is conveniently located near several attractions.
+Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5162,12 +6921,55 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated cafe, check out Becha Lounge located at 5R9J+C6C Becha Lounge, Rue 18 Janvier 1952, Kasserine. This cafe is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website at https://www.google.com/maps/place/Becha+Lounge/data=!4m7!3m6!1s0x12f915b4877a2785:0xe6dc038fc5ed717e!8m2!3d35.1685632!4d8.8305102!16s%2Fg%2F11mvx9dzsf!19sChIJhSd6h7QV-RIRfnHtxY8D3OY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 736 098.</t>
+          <t>Becha Lounge is a cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 5R9J+C6C Becha Lounge, Rue 18 Janvier 1952, Kasserine.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Kasserine with a 5.0 rating and 24/7 availability?</t>
+          <t>Day Plan:
+Morning: Explore The Twins Coffee for a delightful breakfast and local ambiance.
+Mid-Morning: Visit the ancient and historical source of water, `Ayn al Qa\'id.
+Midday: Try local cuisine at the highly-rated Wassel restaurant.
+Afternoon: Engage in outdoor activities like hiking or picnicking at a scenic spot.
+Evening: Enjoy a traditional dinner at ASK Street food for a taste of authentic flavors.
+Night: Experience cultural immersion at the Mac Food Kasserine cafe and grill, savoring local flavors and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Twins Coffee is a highly rated cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a welcoming atmosphere with a 4.8-star rating. Nestled on Rue 18 Janvier 1952, this cafe offers a convenient location for locals and visitors alike.
+Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5273,14 +7075,61 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a delicious meal, check out Restaurant GUSTO located at 5R9M+FQX Kasserine. 
-This top-rated destination with a rating of 4.0 is perfect for Pizzeria lovers. 
-It's open during these hours: 05:00-19:30, but closed on [].. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website or call them at 58 663 370.</t>
+          <t>Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you indulge in delectable Pizzeria creations at a highly-rated restaurant with GPS coordinates 35.167491, 8.8334526?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Creperie la Joie, a highly-rated restaurant (Coordinates: 35.167491, 8.8334526).
+**Mid-Morning:**
+* Take a guided tour of Ayn al Qa'id, a natural water source with a rich history.
+**Midday:**
+* Lunch at La Sirène, a top-rated pizzeria located at (35.167491, 8.8334526).
+**Afternoon:**
+* Try local cuisine at ASK Street food, a fast food restaurant offering a variety of dishes.
+**Evening:**
+* Visit Mac Food Kasserine, a cafe and grill with a wide range of grilled options.
+**Night:**
+* Relax with a coffee and pastries at Escape coffee shop (5RJ8+PQ, Kasserine).</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.
+Located in Kasserine, Creperie la Joie is a restaurant offering a delightful dining experience. With a 5.0 rating, it's situated at coordinates (35.167491, 8.8334526), making it easily accessible.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5382,14 +7231,55 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Mlawi Hlima- mlwy Hlym@ located at 5RCM+GWC, Avenue 14 Janvier. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.1696446402, 8.831197917786. For more details, visit their website or call them at 55 520 520.</t>
+          <t>Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly-rated establishment offering Restauration rapide and other delights, attracting visitors with its exceptional 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the bustling ASK Street food for a taste of local cuisine.
+Mid-Morning: Visit the historical Ayn al Qa'id for a serene exploration.
+Midday: Indulge in a delightful lunch at the highly-rated My Way coffee shop.
+Afternoon: Embark on a guided tour of the Station des Bus de Kasserine to learn about the city's transportation hub.
+Evening: Relax with a refreshing evening stroll through the scenic streets of Kasserine.
+Night: Experience the vibrant ambiance of Mac Food Kasserine for a satisfying dinner.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+My Way coffee shop is a highly-rated cafe located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It is open 24 hours a day, offering a convenient and inviting space for patrons.
+Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5495,12 +7385,62 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you are in kasserine and looking for a great restaurant, check out by` smk , qSb , mT`m )mshwy smk bn khdyj@) located at 5R7M+49M by` smk , qSb , mT`m )mshwy smk bn khdyj@), Rue Mongi Slim, Kasserine. This top-rated destination offers a range of restaurant cuisines to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-11:01. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, call them at 98 723 172.</t>
+          <t>This restaurant is located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 out of 5, and is open from 08:00 to 11:01. It is a restaurant that offers a variety of dishes.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a wide variety of cuisines, located at a specific address and GPS coordinates in Kasserine?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore 'Ayn al Qa'id for a serene start to the day.
+**Mid-Morning:**
+* Visit Sketch CoffeeShop for a delightful coffee experience.
+**Midday:**
+* Try local cuisine at Mlawi Hlima Restaurant.
+**Afternoon:**
+* Visit Mat3em Salwa Wa Jahida for a filling meal.
+**Evening:**
+* Enjoy scenic views at Restaurant GUSTO.
+**Night:**
+* Relax with friends and coffee at Cafe-IN.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sketch CoffeeShop is a highly-rated cafe located in Kasserine, Tunisia. It offers a cozy and inviting atmosphere with a focus on quality coffee and delectable treats. The cafe's convenient location and extended hours make it an ideal spot for locals and visitors alike to relax and socialize.
+Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5598,12 +7538,56 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in kasserine, be sure to check out Station des Bus located at 5RHX+35Q Station des Bus, Kasserine. This bus and coach company is perfect for transportation enthusiasts, with a rating of 3.2. Their contact number is 77 472 210. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at (link not provided)</t>
+          <t>**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find Station des Bus, a highly-rated transportation hub perfect for enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the mesmerizing Brown Club, a popular cafe in Kasserine, offering a warm atmosphere and a range of delectable treats.
+Mid-Morning: Embark on a culinary adventure at Mlawi Hlima restaurant, savoring the flavors of local fast food.
+Midday: Visit the Ayn al Qa'id, a refreshing source of water, and immerse yourself in the natural beauty of Kasserine.
+Afternoon: Head to Mac Food Kasserine, a cafe and grill, to indulge in delectable grilled dishes while taking in the vibrant ambiance.
+Evening: Delight in an authentic dining experience at Wassel, a highly-rated restaurant, treating your taste buds to a wide array of culinary wonders.
+Night: Unwind and soak in the captivating ambiance of La sirene, a pizzeria renowned for its exceptional pizzas, while enjoying the company of friends or loved ones.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.
+Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.
+Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5709,12 +7693,62 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for reliable transportation, check out STE REGIONALE DE TRANSPORT DE KASSERINE located at 5RGX+X4P. This service provider is highly rated among travelers and offers a range of transportation options. With a rating of 2.6 out of 5, it's a trusted choice for your travel needs. It's open during these hours: 08:00-18:00, but closed on Saturday and Sunday. To get there, you can use the GPS coordinates: 35.16758, 8.83651. For inquiries, you can call them at 77 473 600.</t>
+          <t>The STE REGIONALE DE TRANSPORT DE KASSERINE is a transport service located in kasserine, Tunisia. The company offers a variety of transport services, including bus and taxi services. The company is located at 5RGX+X4P STE REGIONALE DE TRANSPORT DE KASSERINE, Kasserine, and can be contacted at 77 473 600. The company's website is nan.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Kasserine can you find a highly rated transportation service provider with a wide range of options?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic landmarks of Kasserine, including the Roman ruins and the ancient medina.
+**Mid-Morning:**
+- Visit the Cafe la rosa for a relaxing coffee break and soak in the local ambiance.
+**Midday:**
+- Try local cuisine at Mlawi Hlima Restaurant, known for its delicious fast food options.
+**Afternoon:**
+- Enjoy a scenic drive to 'Ayn al Qa'id, a picturesque water source offering breathtaking views.
+**Evening:**
+- Engage in cultural immersion at the Espace Malouf, a restaurant serving traditional Tunisian dishes and providing a glimpse into local culinary customs.
+**Night:**
+- Immerse yourself in the lively atmosphere of The Diesel, a popular cafeteria where you can socialize with locals and experience the vibrant nightlife of Kasserine.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe la rosa, a 5-star rated cafe located in Kasserine (35.167491, 8.8334526), is a great place to relax and enjoy a cup of coffee. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is also a popular spot for locals to socialize and catch up with friends.
+Espace Malouf is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is open from 6:00 AM to 1:00 AM, and is closed on national holidays. Espace Malouf is located at the following coordinates: 35.167491, 8.8334526.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).
+**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5808,14 +7842,55 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for an Administration place, check out Base Transport Gaz Kasserine located at 5RFF+GX9 Base Transport Gaz Kasserine, Kasserine. 
-This place is perfect for Administration lovers and offers a range of Administration categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.167491, 8.8334526.</t>
+          <t>The Base Transport Gaz Kasserine is an administrative facility located in Kasserine, Tunisia. It offers administrative services, and it is located at the coordinates (35.167491, 8.8334526).</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>What is the name of the Administration place in Kasserine with GPS coordinates 35.167491, 8.8334526 that offers a variety of Administration categories?</t>
+          <t>Day Plan:
+**Morning**: Explore the Nirvana coffee shop, a cozy cafe with a high rating and a relaxing atmosphere.
+**Mid-Morning**: Visit Kasserine Resto, a highly-rated restaurant with a potentially delicious menu.
+**Midday**: Enjoy the scenic views at Ayn al Qa'id, a water source with a moderate rating but stunning surroundings.
+**Afternoon**: Try the delicious pizzas at La Sirène, a pizzeria with rave reviews and a wide variety of dishes.
+**Evening**: Engage in the vibrant street food culture at ASK Street food, a fast food restaurant with a wide selection of dishes.
+**Night**: Unwind at Mac Food Kasserine, a cafe and grill with a cozy ambiance and a diverse menu.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nirvana coffee shop is a cafe located in Kasserine, Tunisia. It is open from 8:00 AM to 11:00 PM and is closed on Sundays. The cafe has a rating of 4.3 out of 5 stars on Google and has been reviewed by 3 people. Nirvana coffee shop's main category is Cafe and it also offers the following categories: Cafe. The cafe is located at the coordinates (35.167491, 8.8334526) and its address is 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine.
+Kasserine Resto, located at the Avenue Taieb Mhiri in Kasserine, Tunisia (coordinates: 35.168222653572, 8.832819236376), is a restaurant with a 5-star rating based on one review. Unfortunately, there is no further information available about this establishment, including its menu, hours of operation, or contact information.
+**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.
+`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.
+La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).
+ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.
+Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.
+The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).
+**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
